--- a/biology/Botanique/Cephalostachyum/Cephalostachyum.xlsx
+++ b/biology/Botanique/Cephalostachyum/Cephalostachyum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalostachyum est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Bambusoideae, originaire d'Asie et de Madagascar, qui comprend une quinzaine d'espèces acceptées.
 Ce sont des bambous vivaces, à rhizomes courts (pachymorphes), aux tiges (chaumes) dressées pouvant atteindre 13 mètres de long et aux inflorescences formée d'épillets groupés en têtes globuleuses. Ces plantes se rencontrent dans des forêts subtropicales humides à des altitudes allant de 500 à 2500 mètres.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Cephalostachyum » dérive de deux racines grecques :  κεφαλή (kephalế), « tête », et στάχυς (stachys), « épi ». Ce nom forgé par William Munro fait référence à la manière dont les épillets sont groupés en une tête globuleuse ou en un épi de têtes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Cephalostachyum » dérive de deux racines grecques :  κεφαλή (kephalế), « tête », et στάχυς (stachys), « épi ». Ce nom forgé par William Munro fait référence à la manière dont les épillets sont groupés en une tête globuleuse ou en un épi de têtes.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 juin 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 juin 2018) :
 Cephalostachyum burmanicum R.Parker &amp; C.E.Parkinson (1932)
 Cephalostachyum capitatum Munro (1868)
 Cephalostachyum chinense (Rendle) D.Z.Li &amp; H.Q.Yang (2007)
@@ -560,7 +576,7 @@
 Cephalostachyum pingbianense (Hsueh &amp; Y.M.Yang ex T.P.Yi) D.Z.Li &amp; H.Q.Yang (2008)
 Cephalostachyum sanguineum (W.P.Zhang) D.Z.Li &amp; H.Q.Yang (2007)
 Cephalostachyum scandens Bor (1957 publ. 1958)
-Selon The Plant List            (12 juin 2018)[5] :
+Selon The Plant List            (12 juin 2018) :
 Cephalostachyum burmanicum R.Parker &amp; C.E.Parkinson
 Cephalostachyum capitatum Munro
 Cephalostachyum chapelieri Munro
